--- a/SAM BD Update 120519.xlsx
+++ b/SAM BD Update 120519.xlsx
@@ -719,9 +719,6 @@
     <t>Informal sector-1 receives  ( on the other hand can say pay for import)</t>
   </si>
   <si>
-    <t>The result is based on tha data provided by the ADB</t>
-  </si>
-  <si>
     <t xml:space="preserve">I am not responsible for the mistakes of the model </t>
   </si>
   <si>
@@ -735,6 +732,9 @@
   </si>
   <si>
     <t xml:space="preserve">The result reflects the decisions and steps, those were taken by the political and non political agents on behalf of the people of the People's Republic of Bangladesh </t>
+  </si>
+  <si>
+    <t>The result is based on the data provided by the ADB</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1415,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="11" borderId="25" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="10" borderId="27" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="10" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="11" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="11" borderId="25" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1433,16 +1443,6 @@
     <xf numFmtId="167" fontId="2" fillId="10" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="11" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="10" borderId="27" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="10" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1713,7 +1713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1882,10 +1882,10 @@
       <c r="A5" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="93"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
@@ -2015,8 +2015,8 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6" s="30"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="5" t="s">
         <v>75</v>
       </c>
@@ -13082,20 +13082,20 @@
       <c r="AT93" s="74"/>
     </row>
     <row r="94" spans="1:50" s="72" customFormat="1" hidden="1">
-      <c r="D94" s="95" t="s">
+      <c r="D94" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="95" t="s">
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="100"/>
+      <c r="H94" s="100"/>
+      <c r="I94" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
+      <c r="J94" s="100"/>
+      <c r="K94" s="100"/>
+      <c r="L94" s="100"/>
+      <c r="M94" s="100"/>
       <c r="N94" s="74"/>
       <c r="O94" s="74"/>
       <c r="P94" s="74"/>
@@ -13128,21 +13128,21 @@
       <c r="AX94" s="75"/>
     </row>
     <row r="95" spans="1:50" s="72" customFormat="1" hidden="1">
-      <c r="D95" s="97" t="s">
+      <c r="D95" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
       <c r="H95" s="76">
         <v>410979.72008086671</v>
       </c>
-      <c r="I95" s="97" t="s">
+      <c r="I95" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="J95" s="92"/>
-      <c r="K95" s="92"/>
-      <c r="L95" s="92"/>
+      <c r="J95" s="95"/>
+      <c r="K95" s="95"/>
+      <c r="L95" s="95"/>
       <c r="M95" s="76">
         <v>168320.45797955984</v>
       </c>
@@ -13178,21 +13178,21 @@
       <c r="AX95" s="75"/>
     </row>
     <row r="96" spans="1:50" s="72" customFormat="1" hidden="1">
-      <c r="D96" s="91" t="s">
+      <c r="D96" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
       <c r="H96" s="76">
         <v>-178510.76823883163</v>
       </c>
-      <c r="I96" s="91" t="s">
+      <c r="I96" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="J96" s="92"/>
-      <c r="K96" s="92"/>
-      <c r="L96" s="92"/>
+      <c r="J96" s="95"/>
+      <c r="K96" s="95"/>
+      <c r="L96" s="95"/>
       <c r="M96" s="76">
         <v>0</v>
       </c>
@@ -13228,21 +13228,21 @@
       <c r="AX96" s="75"/>
     </row>
     <row r="97" spans="4:50" s="72" customFormat="1" hidden="1">
-      <c r="D97" s="97" t="s">
+      <c r="D97" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
+      <c r="E97" s="95"/>
+      <c r="F97" s="95"/>
+      <c r="G97" s="95"/>
       <c r="H97" s="76">
         <v>232468.95184203508</v>
       </c>
-      <c r="I97" s="97" t="s">
+      <c r="I97" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="J97" s="92"/>
-      <c r="K97" s="92"/>
-      <c r="L97" s="92"/>
+      <c r="J97" s="95"/>
+      <c r="K97" s="95"/>
+      <c r="L97" s="95"/>
       <c r="M97" s="76">
         <v>14736.41467331286</v>
       </c>
@@ -13278,21 +13278,21 @@
       <c r="AX97" s="75"/>
     </row>
     <row r="98" spans="4:50" s="72" customFormat="1" hidden="1">
-      <c r="D98" s="91" t="s">
+      <c r="D98" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="95"/>
       <c r="H98" s="76">
         <v>13164.537081306869</v>
       </c>
-      <c r="I98" s="91" t="s">
+      <c r="I98" s="96" t="s">
         <v>218</v>
       </c>
-      <c r="J98" s="92"/>
-      <c r="K98" s="92"/>
-      <c r="L98" s="92"/>
+      <c r="J98" s="95"/>
+      <c r="K98" s="95"/>
+      <c r="L98" s="95"/>
       <c r="M98" s="76">
         <v>75579.066462789953</v>
       </c>
@@ -13374,17 +13374,17 @@
       <c r="AX99" s="75"/>
     </row>
     <row r="100" spans="4:50" s="72" customFormat="1" hidden="1">
-      <c r="D100" s="97"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="95"/>
       <c r="H100" s="76"/>
-      <c r="I100" s="97" t="s">
+      <c r="I100" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="J100" s="92"/>
-      <c r="K100" s="92"/>
-      <c r="L100" s="92"/>
+      <c r="J100" s="95"/>
+      <c r="K100" s="95"/>
+      <c r="L100" s="95"/>
       <c r="M100" s="76"/>
       <c r="N100" s="74"/>
       <c r="O100" s="74"/>
@@ -13418,17 +13418,17 @@
       <c r="AX100" s="75"/>
     </row>
     <row r="101" spans="4:50" s="72" customFormat="1" hidden="1">
-      <c r="D101" s="97"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="95"/>
       <c r="H101" s="79"/>
-      <c r="I101" s="97" t="s">
+      <c r="I101" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="J101" s="92"/>
-      <c r="K101" s="92"/>
-      <c r="L101" s="92"/>
+      <c r="J101" s="95"/>
+      <c r="K101" s="95"/>
+      <c r="L101" s="95"/>
       <c r="M101" s="79">
         <v>30734.20841501328</v>
       </c>
@@ -13464,17 +13464,17 @@
       <c r="AX101" s="75"/>
     </row>
     <row r="102" spans="4:50" s="72" customFormat="1" hidden="1">
-      <c r="D102" s="97"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="95"/>
+      <c r="G102" s="95"/>
       <c r="H102" s="76"/>
-      <c r="I102" s="97" t="s">
+      <c r="I102" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="J102" s="92"/>
-      <c r="K102" s="92"/>
-      <c r="L102" s="92"/>
+      <c r="J102" s="95"/>
+      <c r="K102" s="95"/>
+      <c r="L102" s="95"/>
       <c r="M102" s="76">
         <v>-43736.658607334168</v>
       </c>
@@ -13510,17 +13510,17 @@
       <c r="AX102" s="75"/>
     </row>
     <row r="103" spans="4:50" s="72" customFormat="1" hidden="1">
-      <c r="D103" s="97"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
       <c r="H103" s="76"/>
-      <c r="I103" s="97" t="s">
+      <c r="I103" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="J103" s="92"/>
-      <c r="K103" s="92"/>
-      <c r="L103" s="92"/>
+      <c r="J103" s="95"/>
+      <c r="K103" s="95"/>
+      <c r="L103" s="95"/>
       <c r="M103" s="76">
         <v>0</v>
       </c>
@@ -13556,21 +13556,21 @@
       <c r="AX103" s="75"/>
     </row>
     <row r="104" spans="4:50" s="72" customFormat="1" hidden="1">
-      <c r="D104" s="98" t="s">
+      <c r="D104" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="99"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="93"/>
       <c r="H104" s="80">
         <v>245633.48892334194</v>
       </c>
-      <c r="I104" s="98" t="s">
+      <c r="I104" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="J104" s="99"/>
-      <c r="K104" s="99"/>
-      <c r="L104" s="99"/>
+      <c r="J104" s="93"/>
+      <c r="K104" s="93"/>
+      <c r="L104" s="93"/>
       <c r="M104" s="80">
         <v>245633.48892334176</v>
       </c>
@@ -13608,6 +13608,19 @@
     <row r="105" spans="4:50" hidden="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="I94:M94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="I100:L100"/>
     <mergeCell ref="D104:G104"/>
     <mergeCell ref="I104:L104"/>
     <mergeCell ref="D101:G101"/>
@@ -13616,19 +13629,6 @@
     <mergeCell ref="I102:L102"/>
     <mergeCell ref="D103:G103"/>
     <mergeCell ref="I103:L103"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="I94:M94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="I95:L95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B91" r:id="rId1"/>
@@ -13642,7 +13642,7 @@
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17951,7 +17951,7 @@
         <v>230</v>
       </c>
       <c r="F45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -17969,7 +17969,7 @@
         <v>1845.2809436419436</v>
       </c>
       <c r="F48" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -17981,7 +17981,7 @@
         <v>293.54516489115753</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -17993,7 +17993,7 @@
         <v>1236.2430714651682</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -18014,7 +18014,7 @@
         <v>41.486236005034399</v>
       </c>
       <c r="F52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -18089,7 +18089,7 @@
         <v>1744.6250377334904</v>
       </c>
       <c r="I59" s="90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -18109,7 +18109,7 @@
         <f t="shared" si="0"/>
         <v>187.93557886803228</v>
       </c>
-      <c r="I61" s="100">
+      <c r="I61" s="91">
         <v>43597</v>
       </c>
     </row>
@@ -18394,10 +18394,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="101">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
@@ -18535,8 +18535,8 @@
       </c>
     </row>
     <row r="2" spans="1:47">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
@@ -24431,10 +24431,10 @@
       </c>
     </row>
     <row r="55" spans="1:47" ht="101">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="93"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="2" t="s">
         <v>36</v>
       </c>
@@ -24572,8 +24572,8 @@
       </c>
     </row>
     <row r="56" spans="1:47">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="5" t="s">
         <v>75</v>
       </c>
@@ -31732,7 +31732,7 @@
     </row>
     <row r="101" spans="1:47">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -31809,10 +31809,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="20" customFormat="1" ht="100">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
@@ -31950,8 +31950,8 @@
       </c>
     </row>
     <row r="2" spans="1:54" s="20" customFormat="1" ht="12.5">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
@@ -38526,7 +38526,7 @@
     </row>
     <row r="48" spans="1:54">
       <c r="B48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AO48" t="s">
         <v>161</v>
@@ -38874,10 +38874,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="20" customFormat="1" ht="100">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
@@ -39015,8 +39015,8 @@
       </c>
     </row>
     <row r="2" spans="1:54" s="20" customFormat="1" ht="12.5">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
@@ -45593,7 +45593,7 @@
     </row>
     <row r="48" spans="1:54">
       <c r="B48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AO48" t="s">
         <v>161</v>
@@ -56837,7 +56837,7 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -61632,7 +61632,7 @@
     </row>
     <row r="48" spans="1:39">
       <c r="B48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="3:3">
@@ -66435,7 +66435,7 @@
     </row>
     <row r="48" spans="1:39">
       <c r="B48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -70659,7 +70659,7 @@
     </row>
     <row r="45" spans="1:37">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -80434,7 +80434,7 @@
     </row>
     <row r="91" spans="1:37">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
